--- a/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_st01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="965">
   <si>
     <t>zh_CN</t>
   </si>
@@ -3044,7 +3044,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tachanka"]아직 화염 수류탄이 몇 개 남았다. 얼마나 쓰면 되지?
+    <t xml:space="preserve">[name="Tachanka"]아직 중형 폭발 수류탄이 몇 개 남았다. 얼마나 쓰면 되지?
 </t>
   </si>
   <si>
@@ -3052,7 +3052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tachanka"]라져.
+    <t xml:space="preserve">[name="Tachanka"]알았다.
 </t>
   </si>
   <si>
@@ -3200,10 +3200,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tachanka"]알았다.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">[name="Ash"]좋아.
 </t>
   </si>
@@ -3660,7 +3656,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Frost"]라져.
+    <t xml:space="preserve">[name="Frost"]알았다.
 </t>
   </si>
   <si>
@@ -5242,7 +5238,7 @@
         <v>557</v>
       </c>
       <c r="D72" t="s">
-        <v>797</v>
+        <v>760</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5256,7 +5252,7 @@
         <v>558</v>
       </c>
       <c r="D73" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -5270,7 +5266,7 @@
         <v>559</v>
       </c>
       <c r="D74" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5284,7 +5280,7 @@
         <v>560</v>
       </c>
       <c r="D75" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -5298,7 +5294,7 @@
         <v>561</v>
       </c>
       <c r="D76" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5312,7 +5308,7 @@
         <v>562</v>
       </c>
       <c r="D77" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5326,7 +5322,7 @@
         <v>563</v>
       </c>
       <c r="D78" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -5340,7 +5336,7 @@
         <v>564</v>
       </c>
       <c r="D79" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -5354,7 +5350,7 @@
         <v>565</v>
       </c>
       <c r="D80" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5368,7 +5364,7 @@
         <v>566</v>
       </c>
       <c r="D81" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -5382,7 +5378,7 @@
         <v>567</v>
       </c>
       <c r="D82" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5396,7 +5392,7 @@
         <v>568</v>
       </c>
       <c r="D83" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -5410,7 +5406,7 @@
         <v>569</v>
       </c>
       <c r="D84" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5424,7 +5420,7 @@
         <v>570</v>
       </c>
       <c r="D85" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5438,7 +5434,7 @@
         <v>571</v>
       </c>
       <c r="D86" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5452,7 +5448,7 @@
         <v>572</v>
       </c>
       <c r="D87" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5466,7 +5462,7 @@
         <v>573</v>
       </c>
       <c r="D88" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -5480,7 +5476,7 @@
         <v>574</v>
       </c>
       <c r="D89" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -5494,7 +5490,7 @@
         <v>575</v>
       </c>
       <c r="D90" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5508,7 +5504,7 @@
         <v>576</v>
       </c>
       <c r="D91" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5522,7 +5518,7 @@
         <v>577</v>
       </c>
       <c r="D92" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5536,7 +5532,7 @@
         <v>578</v>
       </c>
       <c r="D93" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5550,7 +5546,7 @@
         <v>579</v>
       </c>
       <c r="D94" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -5564,7 +5560,7 @@
         <v>580</v>
       </c>
       <c r="D95" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5578,7 +5574,7 @@
         <v>581</v>
       </c>
       <c r="D96" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -5592,7 +5588,7 @@
         <v>582</v>
       </c>
       <c r="D97" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -5606,7 +5602,7 @@
         <v>583</v>
       </c>
       <c r="D98" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -5620,7 +5616,7 @@
         <v>584</v>
       </c>
       <c r="D99" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5634,7 +5630,7 @@
         <v>585</v>
       </c>
       <c r="D100" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -5648,7 +5644,7 @@
         <v>586</v>
       </c>
       <c r="D101" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5662,7 +5658,7 @@
         <v>587</v>
       </c>
       <c r="D102" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -5676,7 +5672,7 @@
         <v>588</v>
       </c>
       <c r="D103" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5690,7 +5686,7 @@
         <v>589</v>
       </c>
       <c r="D104" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5704,7 +5700,7 @@
         <v>590</v>
       </c>
       <c r="D105" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5718,7 +5714,7 @@
         <v>591</v>
       </c>
       <c r="D106" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5732,7 +5728,7 @@
         <v>592</v>
       </c>
       <c r="D107" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5746,7 +5742,7 @@
         <v>593</v>
       </c>
       <c r="D108" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -5760,7 +5756,7 @@
         <v>594</v>
       </c>
       <c r="D109" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5774,7 +5770,7 @@
         <v>595</v>
       </c>
       <c r="D110" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -5788,7 +5784,7 @@
         <v>596</v>
       </c>
       <c r="D111" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -5802,7 +5798,7 @@
         <v>597</v>
       </c>
       <c r="D112" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5816,7 +5812,7 @@
         <v>598</v>
       </c>
       <c r="D113" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5830,7 +5826,7 @@
         <v>599</v>
       </c>
       <c r="D114" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5844,7 +5840,7 @@
         <v>600</v>
       </c>
       <c r="D115" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5858,7 +5854,7 @@
         <v>601</v>
       </c>
       <c r="D116" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5872,7 +5868,7 @@
         <v>602</v>
       </c>
       <c r="D117" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5886,7 +5882,7 @@
         <v>603</v>
       </c>
       <c r="D118" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5900,7 +5896,7 @@
         <v>604</v>
       </c>
       <c r="D119" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5914,7 +5910,7 @@
         <v>605</v>
       </c>
       <c r="D120" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5928,7 +5924,7 @@
         <v>606</v>
       </c>
       <c r="D121" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5942,7 +5938,7 @@
         <v>607</v>
       </c>
       <c r="D122" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5956,7 +5952,7 @@
         <v>608</v>
       </c>
       <c r="D123" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -5970,7 +5966,7 @@
         <v>609</v>
       </c>
       <c r="D124" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5984,7 +5980,7 @@
         <v>610</v>
       </c>
       <c r="D125" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5998,7 +5994,7 @@
         <v>611</v>
       </c>
       <c r="D126" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -6012,7 +6008,7 @@
         <v>612</v>
       </c>
       <c r="D127" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -6026,7 +6022,7 @@
         <v>613</v>
       </c>
       <c r="D128" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -6040,7 +6036,7 @@
         <v>614</v>
       </c>
       <c r="D129" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -6054,7 +6050,7 @@
         <v>615</v>
       </c>
       <c r="D130" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -6068,7 +6064,7 @@
         <v>616</v>
       </c>
       <c r="D131" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -6082,7 +6078,7 @@
         <v>617</v>
       </c>
       <c r="D132" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6096,7 +6092,7 @@
         <v>618</v>
       </c>
       <c r="D133" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6110,7 +6106,7 @@
         <v>619</v>
       </c>
       <c r="D134" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6124,7 +6120,7 @@
         <v>620</v>
       </c>
       <c r="D135" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6138,7 +6134,7 @@
         <v>621</v>
       </c>
       <c r="D136" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6152,7 +6148,7 @@
         <v>622</v>
       </c>
       <c r="D137" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6166,7 +6162,7 @@
         <v>623</v>
       </c>
       <c r="D138" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -6180,7 +6176,7 @@
         <v>624</v>
       </c>
       <c r="D139" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6194,7 +6190,7 @@
         <v>625</v>
       </c>
       <c r="D140" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -6208,7 +6204,7 @@
         <v>626</v>
       </c>
       <c r="D141" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -6222,7 +6218,7 @@
         <v>627</v>
       </c>
       <c r="D142" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -6236,7 +6232,7 @@
         <v>628</v>
       </c>
       <c r="D143" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -6250,7 +6246,7 @@
         <v>629</v>
       </c>
       <c r="D144" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -6264,7 +6260,7 @@
         <v>630</v>
       </c>
       <c r="D145" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -6278,7 +6274,7 @@
         <v>631</v>
       </c>
       <c r="D146" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6292,7 +6288,7 @@
         <v>632</v>
       </c>
       <c r="D147" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -6306,7 +6302,7 @@
         <v>633</v>
       </c>
       <c r="D148" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -6334,7 +6330,7 @@
         <v>635</v>
       </c>
       <c r="D150" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -6348,7 +6344,7 @@
         <v>636</v>
       </c>
       <c r="D151" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -6362,7 +6358,7 @@
         <v>637</v>
       </c>
       <c r="D152" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -6376,7 +6372,7 @@
         <v>638</v>
       </c>
       <c r="D153" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -6390,7 +6386,7 @@
         <v>639</v>
       </c>
       <c r="D154" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -6404,7 +6400,7 @@
         <v>640</v>
       </c>
       <c r="D155" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -6418,7 +6414,7 @@
         <v>641</v>
       </c>
       <c r="D156" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -6432,7 +6428,7 @@
         <v>642</v>
       </c>
       <c r="D157" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -6446,7 +6442,7 @@
         <v>643</v>
       </c>
       <c r="D158" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -6460,7 +6456,7 @@
         <v>644</v>
       </c>
       <c r="D159" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -6474,7 +6470,7 @@
         <v>645</v>
       </c>
       <c r="D160" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -6488,7 +6484,7 @@
         <v>646</v>
       </c>
       <c r="D161" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -6502,7 +6498,7 @@
         <v>647</v>
       </c>
       <c r="D162" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -6516,7 +6512,7 @@
         <v>648</v>
       </c>
       <c r="D163" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -6530,7 +6526,7 @@
         <v>649</v>
       </c>
       <c r="D164" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -6544,7 +6540,7 @@
         <v>650</v>
       </c>
       <c r="D165" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -6558,7 +6554,7 @@
         <v>651</v>
       </c>
       <c r="D166" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -6572,7 +6568,7 @@
         <v>652</v>
       </c>
       <c r="D167" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -6586,7 +6582,7 @@
         <v>653</v>
       </c>
       <c r="D168" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -6600,7 +6596,7 @@
         <v>654</v>
       </c>
       <c r="D169" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -6614,7 +6610,7 @@
         <v>655</v>
       </c>
       <c r="D170" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -6628,7 +6624,7 @@
         <v>656</v>
       </c>
       <c r="D171" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -6642,7 +6638,7 @@
         <v>657</v>
       </c>
       <c r="D172" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -6656,7 +6652,7 @@
         <v>658</v>
       </c>
       <c r="D173" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6670,7 +6666,7 @@
         <v>659</v>
       </c>
       <c r="D174" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -6684,7 +6680,7 @@
         <v>660</v>
       </c>
       <c r="D175" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -6698,7 +6694,7 @@
         <v>661</v>
       </c>
       <c r="D176" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -6712,7 +6708,7 @@
         <v>662</v>
       </c>
       <c r="D177" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -6726,7 +6722,7 @@
         <v>663</v>
       </c>
       <c r="D178" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -6740,7 +6736,7 @@
         <v>664</v>
       </c>
       <c r="D179" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -6754,7 +6750,7 @@
         <v>665</v>
       </c>
       <c r="D180" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -6768,7 +6764,7 @@
         <v>666</v>
       </c>
       <c r="D181" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -6782,7 +6778,7 @@
         <v>667</v>
       </c>
       <c r="D182" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -6796,7 +6792,7 @@
         <v>668</v>
       </c>
       <c r="D183" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -6810,7 +6806,7 @@
         <v>669</v>
       </c>
       <c r="D184" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -6824,7 +6820,7 @@
         <v>670</v>
       </c>
       <c r="D185" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -6852,7 +6848,7 @@
         <v>672</v>
       </c>
       <c r="D187" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -6866,7 +6862,7 @@
         <v>673</v>
       </c>
       <c r="D188" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -6880,7 +6876,7 @@
         <v>524</v>
       </c>
       <c r="D189" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -6894,7 +6890,7 @@
         <v>674</v>
       </c>
       <c r="D190" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -6908,7 +6904,7 @@
         <v>675</v>
       </c>
       <c r="D191" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -6922,7 +6918,7 @@
         <v>676</v>
       </c>
       <c r="D192" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6936,7 +6932,7 @@
         <v>677</v>
       </c>
       <c r="D193" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -6950,7 +6946,7 @@
         <v>678</v>
       </c>
       <c r="D194" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -6964,7 +6960,7 @@
         <v>679</v>
       </c>
       <c r="D195" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -6978,7 +6974,7 @@
         <v>680</v>
       </c>
       <c r="D196" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -6992,7 +6988,7 @@
         <v>681</v>
       </c>
       <c r="D197" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -7006,7 +7002,7 @@
         <v>682</v>
       </c>
       <c r="D198" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -7034,7 +7030,7 @@
         <v>684</v>
       </c>
       <c r="D200" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -7048,7 +7044,7 @@
         <v>685</v>
       </c>
       <c r="D201" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -7062,7 +7058,7 @@
         <v>686</v>
       </c>
       <c r="D202" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -7076,7 +7072,7 @@
         <v>687</v>
       </c>
       <c r="D203" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -7090,7 +7086,7 @@
         <v>688</v>
       </c>
       <c r="D204" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -7104,7 +7100,7 @@
         <v>689</v>
       </c>
       <c r="D205" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -7118,7 +7114,7 @@
         <v>690</v>
       </c>
       <c r="D206" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -7132,7 +7128,7 @@
         <v>691</v>
       </c>
       <c r="D207" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -7146,7 +7142,7 @@
         <v>692</v>
       </c>
       <c r="D208" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -7160,7 +7156,7 @@
         <v>693</v>
       </c>
       <c r="D209" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -7174,7 +7170,7 @@
         <v>694</v>
       </c>
       <c r="D210" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -7188,7 +7184,7 @@
         <v>695</v>
       </c>
       <c r="D211" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -7202,7 +7198,7 @@
         <v>696</v>
       </c>
       <c r="D212" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -7216,7 +7212,7 @@
         <v>697</v>
       </c>
       <c r="D213" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -7230,7 +7226,7 @@
         <v>698</v>
       </c>
       <c r="D214" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -7244,7 +7240,7 @@
         <v>699</v>
       </c>
       <c r="D215" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -7258,7 +7254,7 @@
         <v>700</v>
       </c>
       <c r="D216" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -7272,7 +7268,7 @@
         <v>701</v>
       </c>
       <c r="D217" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -7286,7 +7282,7 @@
         <v>702</v>
       </c>
       <c r="D218" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -7300,7 +7296,7 @@
         <v>703</v>
       </c>
       <c r="D219" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -7314,7 +7310,7 @@
         <v>704</v>
       </c>
       <c r="D220" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -7328,7 +7324,7 @@
         <v>705</v>
       </c>
       <c r="D221" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -7342,7 +7338,7 @@
         <v>706</v>
       </c>
       <c r="D222" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -7356,7 +7352,7 @@
         <v>707</v>
       </c>
       <c r="D223" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -7370,7 +7366,7 @@
         <v>708</v>
       </c>
       <c r="D224" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -7384,7 +7380,7 @@
         <v>709</v>
       </c>
       <c r="D225" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -7398,7 +7394,7 @@
         <v>710</v>
       </c>
       <c r="D226" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -7412,7 +7408,7 @@
         <v>711</v>
       </c>
       <c r="D227" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -7426,7 +7422,7 @@
         <v>712</v>
       </c>
       <c r="D228" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -7440,7 +7436,7 @@
         <v>713</v>
       </c>
       <c r="D229" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -7454,7 +7450,7 @@
         <v>714</v>
       </c>
       <c r="D230" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -7468,7 +7464,7 @@
         <v>715</v>
       </c>
       <c r="D231" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -7482,7 +7478,7 @@
         <v>716</v>
       </c>
       <c r="D232" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -7496,7 +7492,7 @@
         <v>717</v>
       </c>
       <c r="D233" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -7510,7 +7506,7 @@
         <v>718</v>
       </c>
       <c r="D234" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -7524,7 +7520,7 @@
         <v>719</v>
       </c>
       <c r="D235" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -7538,7 +7534,7 @@
         <v>720</v>
       </c>
       <c r="D236" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -7552,7 +7548,7 @@
         <v>721</v>
       </c>
       <c r="D237" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -7566,7 +7562,7 @@
         <v>722</v>
       </c>
       <c r="D238" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -7580,7 +7576,7 @@
         <v>723</v>
       </c>
       <c r="D239" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -7594,7 +7590,7 @@
         <v>724</v>
       </c>
       <c r="D240" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -7608,7 +7604,7 @@
         <v>725</v>
       </c>
       <c r="D241" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -7622,7 +7618,7 @@
         <v>726</v>
       </c>
       <c r="D242" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -7636,7 +7632,7 @@
         <v>727</v>
       </c>
       <c r="D243" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
   </sheetData>
